--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Camp-Fpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Camp-Fpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,16 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Camp</t>
   </si>
   <si>
     <t>Fpr2</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -546,40 +543,40 @@
         <v>0.39956</v>
       </c>
       <c r="I2">
-        <v>0.6201064343259237</v>
+        <v>0.281772779265766</v>
       </c>
       <c r="J2">
-        <v>0.6201064343259237</v>
+        <v>0.281772779265766</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.078566</v>
+        <v>0.559584</v>
       </c>
       <c r="N2">
-        <v>0.157132</v>
+        <v>1.678752</v>
       </c>
       <c r="O2">
-        <v>0.004019777884324682</v>
+        <v>0.003429531108364747</v>
       </c>
       <c r="P2">
-        <v>0.002683447543913378</v>
+        <v>0.003429531108364747</v>
       </c>
       <c r="Q2">
-        <v>0.01046394365333333</v>
+        <v>0.07452912768</v>
       </c>
       <c r="R2">
-        <v>0.06278366192</v>
+        <v>0.6707621491200001</v>
       </c>
       <c r="S2">
-        <v>0.002492690130630784</v>
+        <v>0.0009663485119823377</v>
       </c>
       <c r="T2">
-        <v>0.001664023088156782</v>
+        <v>0.0009663485119823377</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -608,40 +605,40 @@
         <v>0.39956</v>
       </c>
       <c r="I3">
-        <v>0.6201064343259237</v>
+        <v>0.281772779265766</v>
       </c>
       <c r="J3">
-        <v>0.6201064343259237</v>
+        <v>0.281772779265766</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.559584</v>
+        <v>28.05830633333333</v>
       </c>
       <c r="N3">
-        <v>1.678752</v>
+        <v>84.17491899999999</v>
       </c>
       <c r="O3">
-        <v>0.02863074851235831</v>
+        <v>0.1719613756258118</v>
       </c>
       <c r="P3">
-        <v>0.02866916306824626</v>
+        <v>0.1719613756258118</v>
       </c>
       <c r="Q3">
-        <v>0.07452912768</v>
+        <v>3.736992292848889</v>
       </c>
       <c r="R3">
-        <v>0.6707621491200001</v>
+        <v>33.63293063564</v>
       </c>
       <c r="S3">
-        <v>0.01775411137208075</v>
+        <v>0.04845403473644935</v>
       </c>
       <c r="T3">
-        <v>0.01777793248535865</v>
+        <v>0.04845403473644934</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -670,10 +667,10 @@
         <v>0.39956</v>
       </c>
       <c r="I4">
-        <v>0.6201064343259237</v>
+        <v>0.281772779265766</v>
       </c>
       <c r="J4">
-        <v>0.6201064343259237</v>
+        <v>0.281772779265766</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.038439</v>
+        <v>131.297198</v>
       </c>
       <c r="N4">
-        <v>24.115317</v>
+        <v>393.891594</v>
       </c>
       <c r="O4">
-        <v>0.4112814616588985</v>
+        <v>0.8046831663916869</v>
       </c>
       <c r="P4">
-        <v>0.4118332877729713</v>
+        <v>0.8046831663916869</v>
       </c>
       <c r="Q4">
-        <v>1.070612895613333</v>
+        <v>17.48703614429333</v>
       </c>
       <c r="R4">
-        <v>9.635516060520001</v>
+        <v>157.38332529864</v>
       </c>
       <c r="S4">
-        <v>0.2550382806936536</v>
+        <v>0.2267378122225625</v>
       </c>
       <c r="T4">
-        <v>0.2553804716176193</v>
+        <v>0.2267378122225625</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -732,102 +729,102 @@
         <v>0.39956</v>
       </c>
       <c r="I5">
-        <v>0.6201064343259237</v>
+        <v>0.281772779265766</v>
       </c>
       <c r="J5">
-        <v>0.6201064343259237</v>
+        <v>0.281772779265766</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.050657</v>
+        <v>3.251240333333333</v>
       </c>
       <c r="N5">
-        <v>0.151971</v>
+        <v>9.753720999999999</v>
       </c>
       <c r="O5">
-        <v>0.002591832195685608</v>
+        <v>0.01992592687413657</v>
       </c>
       <c r="P5">
-        <v>0.002595309718555481</v>
+        <v>0.01992592687413657</v>
       </c>
       <c r="Q5">
-        <v>0.006746836973333334</v>
+        <v>0.4330218625288889</v>
       </c>
       <c r="R5">
-        <v>0.06072153276</v>
+        <v>3.89719676276</v>
       </c>
       <c r="S5">
-        <v>0.001607211821237732</v>
+        <v>0.005614583794771878</v>
       </c>
       <c r="T5">
-        <v>0.001609368255544856</v>
+        <v>0.005614583794771877</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.1174416666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.352325</v>
+      </c>
+      <c r="I6">
+        <v>0.2484622946611547</v>
+      </c>
+      <c r="J6">
+        <v>0.2484622946611547</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>0.1331866666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.39956</v>
-      </c>
-      <c r="I6">
-        <v>0.6201064343259237</v>
-      </c>
-      <c r="J6">
-        <v>0.6201064343259237</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>10.817615</v>
+        <v>0.559584</v>
       </c>
       <c r="N6">
-        <v>32.452845</v>
+        <v>1.678752</v>
       </c>
       <c r="O6">
-        <v>0.553476179748733</v>
+        <v>0.003429531108364747</v>
       </c>
       <c r="P6">
-        <v>0.5542187918963136</v>
+        <v>0.003429531108364747</v>
       </c>
       <c r="Q6">
-        <v>1.440762083133334</v>
+        <v>0.06571847759999999</v>
       </c>
       <c r="R6">
-        <v>12.9668587482</v>
+        <v>0.5914662984</v>
       </c>
       <c r="S6">
-        <v>0.3432141403083208</v>
+        <v>0.0008521091687961184</v>
       </c>
       <c r="T6">
-        <v>0.3436746388792442</v>
+        <v>0.0008521091687961184</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.08159366666666666</v>
+        <v>0.1174416666666667</v>
       </c>
       <c r="H7">
-        <v>0.244781</v>
+        <v>0.352325</v>
       </c>
       <c r="I7">
-        <v>0.3798935656740762</v>
+        <v>0.2484622946611547</v>
       </c>
       <c r="J7">
-        <v>0.3798935656740763</v>
+        <v>0.2484622946611547</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.078566</v>
+        <v>28.05830633333333</v>
       </c>
       <c r="N7">
-        <v>0.157132</v>
+        <v>84.17491899999999</v>
       </c>
       <c r="O7">
-        <v>0.004019777884324682</v>
+        <v>0.1719613756258118</v>
       </c>
       <c r="P7">
-        <v>0.002683447543913378</v>
+        <v>0.1719613756258118</v>
       </c>
       <c r="Q7">
-        <v>0.006410488015333332</v>
+        <v>3.295214259630555</v>
       </c>
       <c r="R7">
-        <v>0.038462928092</v>
+        <v>29.65692833667499</v>
       </c>
       <c r="S7">
-        <v>0.001527087753693898</v>
+        <v>0.04272591798107797</v>
       </c>
       <c r="T7">
-        <v>0.001019424455756596</v>
+        <v>0.04272591798107796</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.08159366666666666</v>
+        <v>0.1174416666666667</v>
       </c>
       <c r="H8">
-        <v>0.244781</v>
+        <v>0.352325</v>
       </c>
       <c r="I8">
-        <v>0.3798935656740762</v>
+        <v>0.2484622946611547</v>
       </c>
       <c r="J8">
-        <v>0.3798935656740763</v>
+        <v>0.2484622946611547</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.559584</v>
+        <v>131.297198</v>
       </c>
       <c r="N8">
-        <v>1.678752</v>
+        <v>393.891594</v>
       </c>
       <c r="O8">
-        <v>0.02863074851235831</v>
+        <v>0.8046831663916869</v>
       </c>
       <c r="P8">
-        <v>0.02866916306824626</v>
+        <v>0.8046831663916869</v>
       </c>
       <c r="Q8">
-        <v>0.045658510368</v>
+        <v>15.41976176178333</v>
       </c>
       <c r="R8">
-        <v>0.410926593312</v>
+        <v>138.77785585605</v>
       </c>
       <c r="S8">
-        <v>0.01087663714027755</v>
+        <v>0.1999334259968823</v>
       </c>
       <c r="T8">
-        <v>0.01089123058288761</v>
+        <v>0.1999334259968823</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.08159366666666666</v>
+        <v>0.1174416666666667</v>
       </c>
       <c r="H9">
-        <v>0.244781</v>
+        <v>0.352325</v>
       </c>
       <c r="I9">
-        <v>0.3798935656740762</v>
+        <v>0.2484622946611547</v>
       </c>
       <c r="J9">
-        <v>0.3798935656740763</v>
+        <v>0.2484622946611547</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,122 +989,122 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.038439</v>
+        <v>3.251240333333333</v>
       </c>
       <c r="N9">
-        <v>24.115317</v>
+        <v>9.753720999999999</v>
       </c>
       <c r="O9">
-        <v>0.4112814616588985</v>
+        <v>0.01992592687413657</v>
       </c>
       <c r="P9">
-        <v>0.4118332877729713</v>
+        <v>0.01992592687413657</v>
       </c>
       <c r="Q9">
-        <v>0.6558857122863333</v>
+        <v>0.3818310834805555</v>
       </c>
       <c r="R9">
-        <v>5.902971410577</v>
+        <v>3.436479751324999</v>
       </c>
       <c r="S9">
-        <v>0.1562431809652448</v>
+        <v>0.004950841514398343</v>
       </c>
       <c r="T9">
-        <v>0.156452816155352</v>
+        <v>0.004950841514398342</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.2220456666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.666137</v>
+      </c>
+      <c r="I10">
+        <v>0.4697649260730792</v>
+      </c>
+      <c r="J10">
+        <v>0.4697649260730792</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="L10">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G10">
-        <v>0.08159366666666666</v>
-      </c>
-      <c r="H10">
-        <v>0.244781</v>
-      </c>
-      <c r="I10">
-        <v>0.3798935656740762</v>
-      </c>
-      <c r="J10">
-        <v>0.3798935656740763</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M10">
-        <v>0.050657</v>
+        <v>0.559584</v>
       </c>
       <c r="N10">
-        <v>0.151971</v>
+        <v>1.678752</v>
       </c>
       <c r="O10">
-        <v>0.002591832195685608</v>
+        <v>0.003429531108364747</v>
       </c>
       <c r="P10">
-        <v>0.002595309718555481</v>
+        <v>0.003429531108364747</v>
       </c>
       <c r="Q10">
-        <v>0.004133290372333333</v>
+        <v>0.124253202336</v>
       </c>
       <c r="R10">
-        <v>0.037199613351</v>
+        <v>1.118278821024</v>
       </c>
       <c r="S10">
-        <v>0.0009846203744478756</v>
+        <v>0.001611073427586291</v>
       </c>
       <c r="T10">
-        <v>0.0009859414630106252</v>
+        <v>0.001611073427586291</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.08159366666666666</v>
+        <v>0.2220456666666667</v>
       </c>
       <c r="H11">
-        <v>0.244781</v>
+        <v>0.666137</v>
       </c>
       <c r="I11">
-        <v>0.3798935656740762</v>
+        <v>0.4697649260730792</v>
       </c>
       <c r="J11">
-        <v>0.3798935656740763</v>
+        <v>0.4697649260730792</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1113,152 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.817615</v>
+        <v>28.05830633333333</v>
       </c>
       <c r="N11">
-        <v>32.452845</v>
+        <v>84.17491899999999</v>
       </c>
       <c r="O11">
-        <v>0.553476179748733</v>
+        <v>0.1719613756258118</v>
       </c>
       <c r="P11">
-        <v>0.5542187918963136</v>
+        <v>0.1719613756258118</v>
       </c>
       <c r="Q11">
-        <v>0.8826488724383335</v>
+        <v>6.230225335322555</v>
       </c>
       <c r="R11">
-        <v>7.943839851945</v>
+        <v>56.07202801790299</v>
       </c>
       <c r="S11">
-        <v>0.2102620394404121</v>
+        <v>0.08078142290828449</v>
       </c>
       <c r="T11">
-        <v>0.2105441530170694</v>
+        <v>0.08078142290828448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.2220456666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.666137</v>
+      </c>
+      <c r="I12">
+        <v>0.4697649260730792</v>
+      </c>
+      <c r="J12">
+        <v>0.4697649260730792</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>131.297198</v>
+      </c>
+      <c r="N12">
+        <v>393.891594</v>
+      </c>
+      <c r="O12">
+        <v>0.8046831663916869</v>
+      </c>
+      <c r="P12">
+        <v>0.8046831663916869</v>
+      </c>
+      <c r="Q12">
+        <v>29.15397386137533</v>
+      </c>
+      <c r="R12">
+        <v>262.385764752378</v>
+      </c>
+      <c r="S12">
+        <v>0.3780119281722421</v>
+      </c>
+      <c r="T12">
+        <v>0.3780119281722421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.2220456666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.666137</v>
+      </c>
+      <c r="I13">
+        <v>0.4697649260730792</v>
+      </c>
+      <c r="J13">
+        <v>0.4697649260730792</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.251240333333333</v>
+      </c>
+      <c r="N13">
+        <v>9.753720999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.01992592687413657</v>
+      </c>
+      <c r="P13">
+        <v>0.01992592687413657</v>
+      </c>
+      <c r="Q13">
+        <v>0.7219238273085555</v>
+      </c>
+      <c r="R13">
+        <v>6.497314445776999</v>
+      </c>
+      <c r="S13">
+        <v>0.009360501564966348</v>
+      </c>
+      <c r="T13">
+        <v>0.009360501564966345</v>
       </c>
     </row>
   </sheetData>
